--- a/my note/ui_430_指令.xlsx
+++ b/my note/ui_430_指令.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\my note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA37C693-9957-423D-8455-84A9EB8FAD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5076EAA-1136-489F-8F0B-9353685ECB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24855" yWindow="-4755" windowWidth="21600" windowHeight="11235" xr2:uid="{CE641E34-91A3-45C3-93E2-BD54458ECCC3}"/>
+    <workbookView xWindow="-25470" yWindow="-1170" windowWidth="21600" windowHeight="11235" xr2:uid="{CE641E34-91A3-45C3-93E2-BD54458ECCC3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,18 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@getZero\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@getBSN\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@getFWver\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\rZero[0],Zero[1], …... ,Zero[23]\r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,48 +73,124 @@
     <t>␆</t>
   </si>
   <si>
-    <t>@getAlways\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@getSpan\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\rSpan[0],Span[1], …... ,Span[23]\r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AE[0],AE[1], …… ,AE[23]:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC[0],ADC[1], …… ,ADC[23]:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHT3x_RHT[0],SHT3x_RHT[1], …... ,SHT3x_RHT[7]:\r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(PPB):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\rSensorName[0],SensorName[1], …... ,SensorName[23]:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WE[0],WE[1], …… ,WE[23]:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@writeBSN,[ID],[BSN]\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@write</t>
+    <r>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>\r\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,BSN\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,FW\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rWE[0],WE[1], …… ,WE[23],:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE[0],AE[1], …… ,AE[23],:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concentration[0],Concentration[0], …... ,Concentration[23],:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHT3x_RHT[0],SHT3x_RHT[1], …... ,SHT3x_RHT[7],\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,A\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,B\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rA[0],A[1], …... ,A[23]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rB[0],B[1], …... ,B[23]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rCalDate[0],CalDate[1], …... ,CalDate[23]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rGasName[0],GasName[1], …... ,GasName[23]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@W,BSN,[ID],[BSN]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@W,</t>
     </r>
     <r>
       <rPr>
@@ -167,19 +231,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@writeZero,[ID],[Zero]\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@writeSpan,[ID],[Span]\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@writeA,[ID],[A]\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@writeB,[ID],[B]\r\n</t>
+    <t>@W,Zero,[ID],[Zero]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@W,Span,[ID],[Span]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@W,A,[ID],[A]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@W,B,[ID],[B]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read one:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RO,BSN,[ID]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rBSN[ID]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rCalDate[ID]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rZero[ID]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rSpan[ID]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rA[ID]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rB[ID]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@RO,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>,[ID]\r\n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RO,Zero,[ID]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RO,Span,[ID]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RO,A,[ID]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RO,B,[ID]\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID=%2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,PPB\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,CAL\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,GAS\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,ZERO\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,SPAN\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@R,INIT\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rPPB[0],PPB[1], …... ,PPB[23]\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate[0],CalDate[1], …... ,CalDate[23],:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero[0],Zero[1], …... ,Zero[23],:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Span[0],Span[1], …... ,Span[23],:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A[0],A[1], …... ,A[23],:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B[0],B[1], …... ,B[23],\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSN[0],BSN[1], …... ,BSN[23],:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rGasName[0],GasName[1], …... ,GasName[23],:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,6 +454,12 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -287,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +546,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2AF4D5-A64D-443A-A336-F75BABDAF938}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -694,16 +917,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -719,157 +942,301 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>3</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
+      <c r="A20" s="12">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>5</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
+      <c r="B30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
